--- a/ExcelFiles/file_example_XLSX_10.xlsx
+++ b/ExcelFiles/file_example_XLSX_10.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="1321">
   <si>
     <t>First Name</t>
   </si>
@@ -3888,6 +3888,96 @@
   </si>
   <si>
     <t>9348</t>
+  </si>
+  <si>
+    <t>611920695</t>
+  </si>
+  <si>
+    <t>2714</t>
+  </si>
+  <si>
+    <t>111632317</t>
+  </si>
+  <si>
+    <t>2587</t>
+  </si>
+  <si>
+    <t>188276085</t>
+  </si>
+  <si>
+    <t>7397</t>
+  </si>
+  <si>
+    <t>834198121</t>
+  </si>
+  <si>
+    <t>8987</t>
+  </si>
+  <si>
+    <t>872445880</t>
+  </si>
+  <si>
+    <t>9829</t>
+  </si>
+  <si>
+    <t>632089344</t>
+  </si>
+  <si>
+    <t>4218</t>
+  </si>
+  <si>
+    <t>201088143</t>
+  </si>
+  <si>
+    <t>7371</t>
+  </si>
+  <si>
+    <t>243271720</t>
+  </si>
+  <si>
+    <t>4702</t>
+  </si>
+  <si>
+    <t>361928006</t>
+  </si>
+  <si>
+    <t>4536</t>
+  </si>
+  <si>
+    <t>565650170</t>
+  </si>
+  <si>
+    <t>2599</t>
+  </si>
+  <si>
+    <t>844299426</t>
+  </si>
+  <si>
+    <t>3707</t>
+  </si>
+  <si>
+    <t>525862692</t>
+  </si>
+  <si>
+    <t>3828</t>
+  </si>
+  <si>
+    <t>430861643</t>
+  </si>
+  <si>
+    <t>1936</t>
+  </si>
+  <si>
+    <t>811260384</t>
+  </si>
+  <si>
+    <t>2718</t>
+  </si>
+  <si>
+    <t>751910048</t>
+  </si>
+  <si>
+    <t>6625</t>
   </si>
 </sst>
 </file>
@@ -4041,7 +4131,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1262</v>
+        <v>1291</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>7</v>
@@ -4062,12 +4152,12 @@
         <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1263</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1264</v>
+        <v>1293</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>12</v>
@@ -4088,12 +4178,12 @@
         <v>15</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>1265</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1266</v>
+        <v>1295</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
@@ -4114,12 +4204,12 @@
         <v>20</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>1267</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1268</v>
+        <v>1297</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>21</v>
@@ -4140,12 +4230,12 @@
         <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>201</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1269</v>
+        <v>1299</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>23</v>
@@ -4166,12 +4256,12 @@
         <v>15</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>1270</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1271</v>
+        <v>1301</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>25</v>
@@ -4192,12 +4282,12 @@
         <v>20</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>1272</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1273</v>
+        <v>1303</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>27</v>
@@ -4218,12 +4308,12 @@
         <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>1274</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1275</v>
+        <v>1305</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>29</v>
@@ -4244,12 +4334,12 @@
         <v>15</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>1276</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1277</v>
+        <v>1307</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>31</v>
@@ -4270,73 +4360,73 @@
         <v>20</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>1278</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" t="s">
-        <v>1279</v>
+        <v>1309</v>
       </c>
       <c r="C11" t="s">
         <v>606</v>
       </c>
       <c r="H11" t="s">
-        <v>1280</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" t="s">
-        <v>1281</v>
+        <v>1311</v>
       </c>
       <c r="C12" t="s">
         <v>215</v>
       </c>
       <c r="H12" t="s">
-        <v>1282</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" t="s">
-        <v>1283</v>
+        <v>1313</v>
       </c>
       <c r="C13" t="s">
         <v>609</v>
       </c>
       <c r="H13" t="s">
-        <v>1284</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" t="s">
-        <v>1285</v>
+        <v>1315</v>
       </c>
       <c r="C14" t="s">
         <v>611</v>
       </c>
       <c r="H14" t="s">
-        <v>1286</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" t="s">
-        <v>1287</v>
+        <v>1317</v>
       </c>
       <c r="C15" t="s">
         <v>613</v>
       </c>
       <c r="H15" t="s">
-        <v>1288</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" t="s">
-        <v>1289</v>
+        <v>1319</v>
       </c>
       <c r="C16" t="s">
         <v>615</v>
       </c>
       <c r="H16" t="s">
-        <v>1290</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ExcelFiles/file_example_XLSX_10.xlsx
+++ b/ExcelFiles/file_example_XLSX_10.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="1378">
   <si>
     <t>First Name</t>
   </si>
@@ -3978,6 +3978,177 @@
   </si>
   <si>
     <t>6625</t>
+  </si>
+  <si>
+    <t>939694042</t>
+  </si>
+  <si>
+    <t>4570</t>
+  </si>
+  <si>
+    <t>450544734</t>
+  </si>
+  <si>
+    <t>7036</t>
+  </si>
+  <si>
+    <t>463395917</t>
+  </si>
+  <si>
+    <t>3327</t>
+  </si>
+  <si>
+    <t>521042137</t>
+  </si>
+  <si>
+    <t>5332</t>
+  </si>
+  <si>
+    <t>557366553</t>
+  </si>
+  <si>
+    <t>1238</t>
+  </si>
+  <si>
+    <t>560436344</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>170455824</t>
+  </si>
+  <si>
+    <t>3041</t>
+  </si>
+  <si>
+    <t>419303294</t>
+  </si>
+  <si>
+    <t>4152</t>
+  </si>
+  <si>
+    <t>943029480</t>
+  </si>
+  <si>
+    <t>3254</t>
+  </si>
+  <si>
+    <t>798536216</t>
+  </si>
+  <si>
+    <t>1691</t>
+  </si>
+  <si>
+    <t>598566863</t>
+  </si>
+  <si>
+    <t>7409</t>
+  </si>
+  <si>
+    <t>390243059</t>
+  </si>
+  <si>
+    <t>8952</t>
+  </si>
+  <si>
+    <t>408617589</t>
+  </si>
+  <si>
+    <t>4140</t>
+  </si>
+  <si>
+    <t>590342591</t>
+  </si>
+  <si>
+    <t>959136488</t>
+  </si>
+  <si>
+    <t>7575</t>
+  </si>
+  <si>
+    <t>305504697</t>
+  </si>
+  <si>
+    <t>472119402</t>
+  </si>
+  <si>
+    <t>1485</t>
+  </si>
+  <si>
+    <t>657034610</t>
+  </si>
+  <si>
+    <t>3317</t>
+  </si>
+  <si>
+    <t>794976539</t>
+  </si>
+  <si>
+    <t>4527</t>
+  </si>
+  <si>
+    <t>581411035</t>
+  </si>
+  <si>
+    <t>6042</t>
+  </si>
+  <si>
+    <t>727835364</t>
+  </si>
+  <si>
+    <t>9444</t>
+  </si>
+  <si>
+    <t>959118568</t>
+  </si>
+  <si>
+    <t>519161197</t>
+  </si>
+  <si>
+    <t>3136</t>
+  </si>
+  <si>
+    <t>942361753</t>
+  </si>
+  <si>
+    <t>9910</t>
+  </si>
+  <si>
+    <t>205465643</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>373947339</t>
+  </si>
+  <si>
+    <t>7454</t>
+  </si>
+  <si>
+    <t>387444828</t>
+  </si>
+  <si>
+    <t>5216</t>
+  </si>
+  <si>
+    <t>944781523</t>
+  </si>
+  <si>
+    <t>8097</t>
+  </si>
+  <si>
+    <t>580755114</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>176622926</t>
+  </si>
+  <si>
+    <t>3217</t>
   </si>
 </sst>
 </file>
@@ -4131,7 +4302,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1291</v>
+        <v>1350</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>7</v>
@@ -4152,12 +4323,12 @@
         <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1292</v>
+        <v>714</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1293</v>
+        <v>1351</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>12</v>
@@ -4178,12 +4349,12 @@
         <v>15</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>1294</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1295</v>
+        <v>1353</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
@@ -4204,12 +4375,12 @@
         <v>20</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>1296</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1297</v>
+        <v>1355</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>21</v>
@@ -4230,12 +4401,12 @@
         <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>1298</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1299</v>
+        <v>1357</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>23</v>
@@ -4256,12 +4427,12 @@
         <v>15</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>1300</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1301</v>
+        <v>1359</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>25</v>
@@ -4282,12 +4453,12 @@
         <v>20</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>1302</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1303</v>
+        <v>1361</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>27</v>
@@ -4308,12 +4479,12 @@
         <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>1304</v>
+        <v>906</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1305</v>
+        <v>1362</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>29</v>
@@ -4334,12 +4505,12 @@
         <v>15</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>1306</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1307</v>
+        <v>1364</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>31</v>
@@ -4360,73 +4531,73 @@
         <v>20</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>1308</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" t="s">
-        <v>1309</v>
+        <v>1366</v>
       </c>
       <c r="C11" t="s">
         <v>606</v>
       </c>
       <c r="H11" t="s">
-        <v>1310</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" t="s">
-        <v>1311</v>
+        <v>1368</v>
       </c>
       <c r="C12" t="s">
         <v>215</v>
       </c>
       <c r="H12" t="s">
-        <v>1312</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" t="s">
-        <v>1313</v>
+        <v>1370</v>
       </c>
       <c r="C13" t="s">
         <v>609</v>
       </c>
       <c r="H13" t="s">
-        <v>1314</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" t="s">
-        <v>1315</v>
+        <v>1372</v>
       </c>
       <c r="C14" t="s">
         <v>611</v>
       </c>
       <c r="H14" t="s">
-        <v>1316</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" t="s">
-        <v>1317</v>
+        <v>1374</v>
       </c>
       <c r="C15" t="s">
         <v>613</v>
       </c>
       <c r="H15" t="s">
-        <v>1318</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" t="s">
-        <v>1319</v>
+        <v>1376</v>
       </c>
       <c r="C16" t="s">
         <v>615</v>
       </c>
       <c r="H16" t="s">
-        <v>1320</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ExcelFiles/file_example_XLSX_10.xlsx
+++ b/ExcelFiles/file_example_XLSX_10.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="1435">
   <si>
     <t>First Name</t>
   </si>
@@ -4149,6 +4149,177 @@
   </si>
   <si>
     <t>3217</t>
+  </si>
+  <si>
+    <t>258970258</t>
+  </si>
+  <si>
+    <t>5395</t>
+  </si>
+  <si>
+    <t>177886298</t>
+  </si>
+  <si>
+    <t>7170</t>
+  </si>
+  <si>
+    <t>372269093</t>
+  </si>
+  <si>
+    <t>8197</t>
+  </si>
+  <si>
+    <t>497682852</t>
+  </si>
+  <si>
+    <t>9252</t>
+  </si>
+  <si>
+    <t>262809209</t>
+  </si>
+  <si>
+    <t>7709</t>
+  </si>
+  <si>
+    <t>926326938</t>
+  </si>
+  <si>
+    <t>6446</t>
+  </si>
+  <si>
+    <t>432631259</t>
+  </si>
+  <si>
+    <t>1332</t>
+  </si>
+  <si>
+    <t>240155315</t>
+  </si>
+  <si>
+    <t>4913</t>
+  </si>
+  <si>
+    <t>605916889</t>
+  </si>
+  <si>
+    <t>9259</t>
+  </si>
+  <si>
+    <t>952554474</t>
+  </si>
+  <si>
+    <t>445255068</t>
+  </si>
+  <si>
+    <t>1672</t>
+  </si>
+  <si>
+    <t>545490763</t>
+  </si>
+  <si>
+    <t>5146</t>
+  </si>
+  <si>
+    <t>833480862</t>
+  </si>
+  <si>
+    <t>6779</t>
+  </si>
+  <si>
+    <t>144839414</t>
+  </si>
+  <si>
+    <t>430844477</t>
+  </si>
+  <si>
+    <t>9268</t>
+  </si>
+  <si>
+    <t>705515591</t>
+  </si>
+  <si>
+    <t>9503</t>
+  </si>
+  <si>
+    <t>946466643</t>
+  </si>
+  <si>
+    <t>7377</t>
+  </si>
+  <si>
+    <t>984015890</t>
+  </si>
+  <si>
+    <t>8651</t>
+  </si>
+  <si>
+    <t>623605770</t>
+  </si>
+  <si>
+    <t>3486</t>
+  </si>
+  <si>
+    <t>915480341</t>
+  </si>
+  <si>
+    <t>3440</t>
+  </si>
+  <si>
+    <t>792640495</t>
+  </si>
+  <si>
+    <t>6706</t>
+  </si>
+  <si>
+    <t>301928002</t>
+  </si>
+  <si>
+    <t>3601</t>
+  </si>
+  <si>
+    <t>371071243</t>
+  </si>
+  <si>
+    <t>6676</t>
+  </si>
+  <si>
+    <t>130179474</t>
+  </si>
+  <si>
+    <t>7525</t>
+  </si>
+  <si>
+    <t>159933687</t>
+  </si>
+  <si>
+    <t>8437</t>
+  </si>
+  <si>
+    <t>272061106</t>
+  </si>
+  <si>
+    <t>9474</t>
+  </si>
+  <si>
+    <t>155149136</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>681246688</t>
+  </si>
+  <si>
+    <t>348501037</t>
+  </si>
+  <si>
+    <t>9485</t>
+  </si>
+  <si>
+    <t>355976401</t>
+  </si>
+  <si>
+    <t>8608</t>
   </si>
 </sst>
 </file>
@@ -4302,7 +4473,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1350</v>
+        <v>1406</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>7</v>
@@ -4323,12 +4494,12 @@
         <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>714</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1351</v>
+        <v>1408</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>12</v>
@@ -4349,12 +4520,12 @@
         <v>15</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>1352</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1353</v>
+        <v>1410</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
@@ -4375,12 +4546,12 @@
         <v>20</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>1354</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1355</v>
+        <v>1412</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>21</v>
@@ -4401,12 +4572,12 @@
         <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>1356</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1357</v>
+        <v>1414</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>23</v>
@@ -4427,12 +4598,12 @@
         <v>15</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>1358</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1359</v>
+        <v>1416</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>25</v>
@@ -4453,12 +4624,12 @@
         <v>20</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>1360</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1361</v>
+        <v>1418</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>27</v>
@@ -4479,12 +4650,12 @@
         <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>906</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1362</v>
+        <v>1420</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>29</v>
@@ -4505,12 +4676,12 @@
         <v>15</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>1363</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1364</v>
+        <v>1422</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>31</v>
@@ -4531,73 +4702,73 @@
         <v>20</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>1365</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" t="s">
-        <v>1366</v>
+        <v>1424</v>
       </c>
       <c r="C11" t="s">
         <v>606</v>
       </c>
       <c r="H11" t="s">
-        <v>1367</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" t="s">
-        <v>1368</v>
+        <v>1426</v>
       </c>
       <c r="C12" t="s">
         <v>215</v>
       </c>
       <c r="H12" t="s">
-        <v>1369</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" t="s">
-        <v>1370</v>
+        <v>1428</v>
       </c>
       <c r="C13" t="s">
         <v>609</v>
       </c>
       <c r="H13" t="s">
-        <v>1371</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" t="s">
-        <v>1372</v>
+        <v>1430</v>
       </c>
       <c r="C14" t="s">
         <v>611</v>
       </c>
       <c r="H14" t="s">
-        <v>1373</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" t="s">
-        <v>1374</v>
+        <v>1431</v>
       </c>
       <c r="C15" t="s">
         <v>613</v>
       </c>
       <c r="H15" t="s">
-        <v>1375</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" t="s">
-        <v>1376</v>
+        <v>1433</v>
       </c>
       <c r="C16" t="s">
         <v>615</v>
       </c>
       <c r="H16" t="s">
-        <v>1377</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ExcelFiles/file_example_XLSX_10.xlsx
+++ b/ExcelFiles/file_example_XLSX_10.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="205" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="205" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" r:id="rId2" sheetId="1" state="visible"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="1435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1463">
   <si>
     <t>First Name</t>
   </si>
@@ -4320,6 +4320,90 @@
   </si>
   <si>
     <t>8608</t>
+  </si>
+  <si>
+    <t>416489317</t>
+  </si>
+  <si>
+    <t>8779</t>
+  </si>
+  <si>
+    <t>941930440</t>
+  </si>
+  <si>
+    <t>6618</t>
+  </si>
+  <si>
+    <t>201335124</t>
+  </si>
+  <si>
+    <t>8038</t>
+  </si>
+  <si>
+    <t>792132756</t>
+  </si>
+  <si>
+    <t>7022</t>
+  </si>
+  <si>
+    <t>428986907</t>
+  </si>
+  <si>
+    <t>1568</t>
+  </si>
+  <si>
+    <t>267788365</t>
+  </si>
+  <si>
+    <t>333545900</t>
+  </si>
+  <si>
+    <t>8475</t>
+  </si>
+  <si>
+    <t>900123606</t>
+  </si>
+  <si>
+    <t>9471</t>
+  </si>
+  <si>
+    <t>836455326</t>
+  </si>
+  <si>
+    <t>9116</t>
+  </si>
+  <si>
+    <t>805445054</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>212848898</t>
+  </si>
+  <si>
+    <t>767236544</t>
+  </si>
+  <si>
+    <t>1863</t>
+  </si>
+  <si>
+    <t>783495863</t>
+  </si>
+  <si>
+    <t>7114</t>
+  </si>
+  <si>
+    <t>394541246</t>
+  </si>
+  <si>
+    <t>6758</t>
+  </si>
+  <si>
+    <t>435238503</t>
+  </si>
+  <si>
+    <t>4738</t>
   </si>
 </sst>
 </file>
@@ -4367,7 +4451,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
@@ -4376,55 +4460,55 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -4434,10 +4518,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="K18" activeCellId="0" pane="topLeft" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4445,7 +4529,7 @@
     <col min="1" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1" s="1">
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
@@ -4471,9 +4555,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>1406</v>
+        <v>1435</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>7</v>
@@ -4494,12 +4578,12 @@
         <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1407</v>
+        <v>1436</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>1408</v>
+        <v>1437</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>12</v>
@@ -4520,12 +4604,12 @@
         <v>15</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>1409</v>
+        <v>1438</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>1410</v>
+        <v>1439</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
@@ -4546,12 +4630,12 @@
         <v>20</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>1411</v>
+        <v>1440</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>1412</v>
+        <v>1441</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>21</v>
@@ -4572,12 +4656,12 @@
         <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>1413</v>
+        <v>1442</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>1414</v>
+        <v>1443</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>23</v>
@@ -4598,12 +4682,12 @@
         <v>15</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>1415</v>
+        <v>1444</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>1416</v>
+        <v>1445</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>25</v>
@@ -4624,12 +4708,12 @@
         <v>20</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>1417</v>
+        <v>1064</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>1418</v>
+        <v>1446</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>27</v>
@@ -4650,12 +4734,12 @@
         <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>1419</v>
+        <v>1447</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>1420</v>
+        <v>1448</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>29</v>
@@ -4676,12 +4760,12 @@
         <v>15</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>1421</v>
+        <v>1449</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>1422</v>
+        <v>1450</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>31</v>
@@ -4702,114 +4786,114 @@
         <v>20</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>1423</v>
+        <v>1451</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="11">
       <c r="A11" t="s">
-        <v>1424</v>
+        <v>1452</v>
       </c>
       <c r="C11" t="s">
         <v>606</v>
       </c>
       <c r="H11" t="s">
-        <v>1425</v>
+        <v>1453</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="12">
       <c r="A12" t="s">
-        <v>1426</v>
+        <v>1454</v>
       </c>
       <c r="C12" t="s">
         <v>215</v>
       </c>
       <c r="H12" t="s">
-        <v>1427</v>
+        <v>681</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="13">
       <c r="A13" t="s">
-        <v>1428</v>
+        <v>1455</v>
       </c>
       <c r="C13" t="s">
         <v>609</v>
       </c>
       <c r="H13" t="s">
-        <v>1429</v>
+        <v>1456</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="14">
       <c r="A14" t="s">
-        <v>1430</v>
+        <v>1457</v>
       </c>
       <c r="C14" t="s">
         <v>611</v>
       </c>
       <c r="H14" t="s">
-        <v>1249</v>
+        <v>1458</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="15">
       <c r="A15" t="s">
-        <v>1431</v>
+        <v>1459</v>
       </c>
       <c r="C15" t="s">
         <v>613</v>
       </c>
       <c r="H15" t="s">
-        <v>1432</v>
+        <v>1460</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="16">
       <c r="A16" t="s">
-        <v>1433</v>
+        <v>1461</v>
       </c>
       <c r="C16" t="s">
         <v>615</v>
       </c>
       <c r="H16" t="s">
-        <v>1434</v>
+        <v>1462</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="17"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="18"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="19"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="20"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="21"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="22"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="23"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="24"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="25"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="26"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="27"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="28"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="29"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="30"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="31"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="32"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="33"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="34"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="35"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="36"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="37"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="38"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="39"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="40"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="41"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="42"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="43"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="44"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="45"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="46"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="47"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="48"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="49"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="50"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.65" outlineLevel="0" r="51"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
